--- a/sample-stock.xlsx
+++ b/sample-stock.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="34">
   <si>
     <t>Make</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>TEST</t>
   </si>
 </sst>
 </file>
@@ -489,7 +492,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -533,7 +536,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -777,7 +780,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:E1 A3:E16 B2:E2" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:E1 A4:E16 B2:E2 B3:E3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>